--- a/medicine/Sexualité et sexologie/Fétichisme_des_seins/Fétichisme_des_seins.xlsx
+++ b/medicine/Sexualité et sexologie/Fétichisme_des_seins/Fétichisme_des_seins.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C3%A9tichisme_des_seins</t>
+          <t>Fétichisme_des_seins</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le fétichisme des seins ou mazophilie[1] est un type de fétichisme sexuel impliquant un intérêt sexuel pour les seins.
-Un débat existe concernant l'attirance sexuelle des seins parmi les hommes hétérosexuels constituant un fétichisme sexuel[style à revoir][2]. Dans la littérature clinique du XIXe siècle, la focalisation sur les seins est considérée comme étant une paraphilie[Information douteuse], mais dans la société occidentale du XXIe siècle, elle est considérée comme normale. Certains individus attribuent au décolleté ou autres habits moulants en tant que partie intégrante du fétichisme des seins tant chez les hétérosexuels que les homosexuels[3].
-L'expression est également utilisée en tant que contexte ethnographique et féministe pour décrire une société dans laquelle la culture est dévouée aux seins[style à revoir], habituellement en tant qu'objets sexuels[3],[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fétichisme des seins ou mazophilie est un type de fétichisme sexuel impliquant un intérêt sexuel pour les seins.
+Un débat existe concernant l'attirance sexuelle des seins parmi les hommes hétérosexuels constituant un fétichisme sexuel[style à revoir]. Dans la littérature clinique du XIXe siècle, la focalisation sur les seins est considérée comme étant une paraphilie[Information douteuse], mais dans la société occidentale du XXIe siècle, elle est considérée comme normale. Certains individus attribuent au décolleté ou autres habits moulants en tant que partie intégrante du fétichisme des seins tant chez les hétérosexuels que les homosexuels.
+L'expression est également utilisée en tant que contexte ethnographique et féministe pour décrire une société dans laquelle la culture est dévouée aux seins[style à revoir], habituellement en tant qu'objets sexuels,.
 </t>
         </is>
       </c>
